--- a/result/with_base/123/arousal/s13_3.xlsx
+++ b/result/with_base/123/arousal/s13_3.xlsx
@@ -9,8 +9,6 @@
   <sheets>
     <sheet name="condition" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="result" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="0.0" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="1.0" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -18,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="22">
   <si>
     <t>accuracy</t>
   </si>
@@ -84,15 +82,6 @@
   </si>
   <si>
     <t>train_loss</t>
-  </si>
-  <si>
-    <t>fpr</t>
-  </si>
-  <si>
-    <t>roc_auc</t>
-  </si>
-  <si>
-    <t>tpr</t>
   </si>
 </sst>
 </file>
@@ -492,10 +481,10 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" t="n">
-        <v>0.9575000107288361</v>
+        <v>0.94140625</v>
       </c>
       <c r="B2" t="n">
-        <v>200</v>
+        <v>128</v>
       </c>
       <c r="C2" t="n">
         <v>1024</v>
@@ -510,13 +499,13 @@
         <v>15</v>
       </c>
       <c r="G2" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
         <v>0.5</v>
       </c>
       <c r="I2" t="n">
-        <v>5e-06</v>
+        <v>1e-06</v>
       </c>
       <c r="J2" t="s">
         <v>16</v>
@@ -542,7 +531,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E81"/>
+  <dimension ref="A1:E51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -572,16 +561,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.8774999976158142</v>
+        <v>0.7912946343421936</v>
       </c>
       <c r="C2" t="n">
-        <v>41730.42578125</v>
+        <v>11306.1943359375</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8612499995665117</v>
+        <v>0.8264837194891537</v>
       </c>
       <c r="E2" t="n">
-        <v>41731.27734375</v>
+        <v>11303.63419117647</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -589,16 +578,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.862500011920929</v>
+        <v>0.8699776828289032</v>
       </c>
       <c r="C3" t="n">
-        <v>40951.529296875</v>
+        <v>11003.27099609375</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8853409073569558</v>
+        <v>0.8990940136068007</v>
       </c>
       <c r="E3" t="n">
-        <v>40950.69566761364</v>
+        <v>11002.04411764706</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -606,16 +595,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.8725000023841858</v>
+        <v>0.8828125</v>
       </c>
       <c r="C4" t="n">
-        <v>40180.56640625</v>
+        <v>10707.06005859375</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9065909006378867</v>
+        <v>0.9160976900773889</v>
       </c>
       <c r="E4" t="n">
-        <v>40176.86470170454</v>
+        <v>10704.689453125</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -623,16 +612,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.9174999892711639</v>
+        <v>0.9001116156578064</v>
       </c>
       <c r="C5" t="n">
-        <v>39410.943359375</v>
+        <v>10412.732421875</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9319318207827482</v>
+        <v>0.9274553586454952</v>
       </c>
       <c r="E5" t="n">
-        <v>39409.96555397727</v>
+        <v>10410.91773897059</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -640,16 +629,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.8824999928474426</v>
+        <v>0.9084821343421936</v>
       </c>
       <c r="C6" t="n">
-        <v>38659.375</v>
+        <v>10124.88427734375</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9356818199157715</v>
+        <v>0.9457064060603871</v>
       </c>
       <c r="E6" t="n">
-        <v>38657.00319602273</v>
+        <v>10122.98506433824</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -657,16 +646,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>0.9274999797344208</v>
+        <v>0.8956473171710968</v>
       </c>
       <c r="C7" t="n">
-        <v>37914.921875</v>
+        <v>9843.67626953125</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9570454413240607</v>
+        <v>0.9415047273916357</v>
       </c>
       <c r="E7" t="n">
-        <v>37913.53622159091</v>
+        <v>9841.768439797794</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -674,16 +663,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>0.9350000023841858</v>
+        <v>0.9073660671710968</v>
       </c>
       <c r="C8" t="n">
-        <v>37185.88671875</v>
+        <v>9568.0615234375</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9569318240339105</v>
+        <v>0.9545036764705882</v>
       </c>
       <c r="E8" t="n">
-        <v>37183.90234375</v>
+        <v>9566.672966452206</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -691,16 +680,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>0.9375</v>
+        <v>0.8995535671710968</v>
       </c>
       <c r="C9" t="n">
-        <v>36468.15625</v>
+        <v>9299.73779296875</v>
       </c>
       <c r="D9" t="n">
-        <v>0.961136357350783</v>
+        <v>0.9552914920975181</v>
       </c>
       <c r="E9" t="n">
-        <v>36466.31676136364</v>
+        <v>9297.9892578125</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -708,16 +697,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>0.9200000166893005</v>
+        <v>0.8989955484867096</v>
       </c>
       <c r="C10" t="n">
-        <v>35764.662109375</v>
+        <v>9037.4267578125</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9638636383143339</v>
+        <v>0.9507615531192106</v>
       </c>
       <c r="E10" t="n">
-        <v>35761.14417613636</v>
+        <v>9035.650160845587</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -725,16 +714,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>0.9300000071525574</v>
+        <v>0.9157366156578064</v>
       </c>
       <c r="C11" t="n">
-        <v>35070.412109375</v>
+        <v>8780.86083984375</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9598863558335737</v>
+        <v>0.9640231097445768</v>
       </c>
       <c r="E11" t="n">
-        <v>35068.31072443182</v>
+        <v>8779.282054227941</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -742,16 +731,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>0.9350000023841858</v>
+        <v>0.9207589328289032</v>
       </c>
       <c r="C12" t="n">
-        <v>34390.65234375</v>
+        <v>8531.365234375</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9752272855151783</v>
+        <v>0.9730173314318937</v>
       </c>
       <c r="E12" t="n">
-        <v>34387.51171875</v>
+        <v>8529.33748851103</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -759,16 +748,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>0.9475000202655792</v>
+        <v>0.9369419515132904</v>
       </c>
       <c r="C13" t="n">
-        <v>33720.35546875</v>
+        <v>8286.59716796875</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9809091091156006</v>
+        <v>0.9816176470588235</v>
       </c>
       <c r="E13" t="n">
-        <v>33718.68678977273</v>
+        <v>8285.483570772059</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -776,16 +765,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>0.9424999952316284</v>
+        <v>0.9246651828289032</v>
       </c>
       <c r="C14" t="n">
-        <v>33063.7265625</v>
+        <v>8049.6044921875</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9825000166893005</v>
+        <v>0.9824711119427401</v>
       </c>
       <c r="E14" t="n">
-        <v>33062.18004261364</v>
+        <v>8047.966366038603</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -793,16 +782,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>0.9275000095367432</v>
+        <v>0.9324776828289032</v>
       </c>
       <c r="C15" t="n">
-        <v>32419.30078125</v>
+        <v>7817.44921875</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9789772846482017</v>
+        <v>0.9832589275696698</v>
       </c>
       <c r="E15" t="n">
-        <v>32417.59463778409</v>
+        <v>7816.430980009191</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -810,16 +799,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>0.9625000059604645</v>
+        <v>0.9246651828289032</v>
       </c>
       <c r="C16" t="n">
-        <v>31785.9482421875</v>
+        <v>7592.125</v>
       </c>
       <c r="D16" t="n">
-        <v>0.980681836605072</v>
+        <v>0.9825367647058824</v>
       </c>
       <c r="E16" t="n">
-        <v>31784.51686789773</v>
+        <v>7590.918169806985</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -827,16 +816,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>0.9275000095367432</v>
+        <v>0.9168526828289032</v>
       </c>
       <c r="C17" t="n">
-        <v>31164.771484375</v>
+        <v>7372.305908203125</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9865909218788147</v>
+        <v>0.9796481097445768</v>
       </c>
       <c r="E17" t="n">
-        <v>31163.12943892046</v>
+        <v>7371.217256433823</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -844,16 +833,16 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>0.9425000250339508</v>
+        <v>0.9246651828289032</v>
       </c>
       <c r="C18" t="n">
-        <v>30555.443359375</v>
+        <v>7158.1611328125</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9776136387478221</v>
+        <v>0.9819459038622239</v>
       </c>
       <c r="E18" t="n">
-        <v>30553.38813920454</v>
+        <v>7157.114229090073</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -861,16 +850,16 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>0.945000022649765</v>
+        <v>0.9280133843421936</v>
       </c>
       <c r="C19" t="n">
-        <v>29956.0869140625</v>
+        <v>6950.098876953125</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9876136454668912</v>
+        <v>0.9856880237074459</v>
       </c>
       <c r="E19" t="n">
-        <v>29954.6171875</v>
+        <v>6948.630399816177</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -878,16 +867,16 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>0.9325000047683716</v>
+        <v>0.9408482015132904</v>
       </c>
       <c r="C20" t="n">
-        <v>29368.6923828125</v>
+        <v>6746.722900390625</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9892045530405912</v>
+        <v>0.9908088235294118</v>
       </c>
       <c r="E20" t="n">
-        <v>29367.11736505682</v>
+        <v>6745.563131893382</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -895,16 +884,16 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>0.9375</v>
+        <v>0.9319196343421936</v>
       </c>
       <c r="C21" t="n">
-        <v>28791.97265625</v>
+        <v>6548.85546875</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9906818270683289</v>
+        <v>0.9847032568034004</v>
       </c>
       <c r="E21" t="n">
-        <v>28790.34605823864</v>
+        <v>6547.931497012868</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -912,16 +901,16 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>0.9275000095367432</v>
+        <v>0.9453125</v>
       </c>
       <c r="C22" t="n">
-        <v>28226.5869140625</v>
+        <v>6356.91455078125</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9880681904879484</v>
+        <v>0.9875262590015635</v>
       </c>
       <c r="E22" t="n">
-        <v>28224.43181818182</v>
+        <v>6355.5380859375</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -929,16 +918,16 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>0.9399999976158142</v>
+        <v>0.9369419515132904</v>
       </c>
       <c r="C23" t="n">
-        <v>27670.3974609375</v>
+        <v>6169.183349609375</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9870454614812677</v>
+        <v>0.9898897058823529</v>
       </c>
       <c r="E23" t="n">
-        <v>27668.85209517046</v>
+        <v>6168.265826056985</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -946,16 +935,16 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>0.9525000154972076</v>
+        <v>0.9408482015132904</v>
       </c>
       <c r="C24" t="n">
-        <v>27124.982421875</v>
+        <v>5986.915283203125</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9863636493682861</v>
+        <v>0.9925814060603871</v>
       </c>
       <c r="E24" t="n">
-        <v>27123.68039772727</v>
+        <v>5986.001838235294</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -963,16 +952,16 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>0.9449999928474426</v>
+        <v>0.94140625</v>
       </c>
       <c r="C25" t="n">
-        <v>26589.7216796875</v>
+        <v>5809.8359375</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9950000047683716</v>
+        <v>0.9866071413545048</v>
       </c>
       <c r="E25" t="n">
-        <v>26588.54279119318</v>
+        <v>5808.65185546875</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -980,16 +969,16 @@
         <v>25</v>
       </c>
       <c r="B26" t="n">
-        <v>0.9625000059604645</v>
+        <v>0.9285714328289032</v>
       </c>
       <c r="C26" t="n">
-        <v>26064.7763671875</v>
+        <v>5636.927734375</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9940909147262573</v>
+        <v>0.9910714275696698</v>
       </c>
       <c r="E26" t="n">
-        <v>26063.53000710227</v>
+        <v>5636.055463005515</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -997,16 +986,16 @@
         <v>26</v>
       </c>
       <c r="B27" t="n">
-        <v>0.9449999928474426</v>
+        <v>0.9375</v>
       </c>
       <c r="C27" t="n">
-        <v>25549.5498046875</v>
+        <v>5469.08154296875</v>
       </c>
       <c r="D27" t="n">
-        <v>0.9925000071525574</v>
+        <v>0.9907431707662695</v>
       </c>
       <c r="E27" t="n">
-        <v>25548.38742897727</v>
+        <v>5468.11727366728</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1014,16 +1003,16 @@
         <v>27</v>
       </c>
       <c r="B28" t="n">
-        <v>0.9600000083446503</v>
+        <v>0.9330357015132904</v>
       </c>
       <c r="C28" t="n">
-        <v>25043.6171875</v>
+        <v>5305.611083984375</v>
       </c>
       <c r="D28" t="n">
-        <v>0.996363639831543</v>
+        <v>0.9902836119427401</v>
       </c>
       <c r="E28" t="n">
-        <v>25042.70809659091</v>
+        <v>5304.723173253677</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1031,16 +1020,16 @@
         <v>28</v>
       </c>
       <c r="B29" t="n">
-        <v>0.9275000095367432</v>
+        <v>0.9453125</v>
       </c>
       <c r="C29" t="n">
-        <v>24548.1796875</v>
+        <v>5146.536376953125</v>
       </c>
       <c r="D29" t="n">
-        <v>0.9913636445999146</v>
+        <v>0.9915309863931993</v>
       </c>
       <c r="E29" t="n">
-        <v>24546.63742897727</v>
+        <v>5145.726045496323</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1048,16 +1037,16 @@
         <v>29</v>
       </c>
       <c r="B30" t="n">
-        <v>0.9575000107288361</v>
+        <v>0.94140625</v>
       </c>
       <c r="C30" t="n">
-        <v>24060.80078125</v>
+        <v>4992.119873046875</v>
       </c>
       <c r="D30" t="n">
-        <v>0.996363639831543</v>
+        <v>0.9912683823529411</v>
       </c>
       <c r="E30" t="n">
-        <v>24059.74769176136</v>
+        <v>4991.119456571691</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1065,16 +1054,16 @@
         <v>30</v>
       </c>
       <c r="B31" t="n">
-        <v>0.9424999952316284</v>
+        <v>0.9458705484867096</v>
       </c>
       <c r="C31" t="n">
-        <v>23583.0361328125</v>
+        <v>4841.385498046875</v>
       </c>
       <c r="D31" t="n">
-        <v>0.994772732257843</v>
+        <v>0.995798317825093</v>
       </c>
       <c r="E31" t="n">
-        <v>23582.07386363636</v>
+        <v>4840.70955882353</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1082,16 +1071,16 @@
         <v>31</v>
       </c>
       <c r="B32" t="n">
-        <v>0.9375</v>
+        <v>0.9369419515132904</v>
       </c>
       <c r="C32" t="n">
-        <v>23114.517578125</v>
+        <v>4695.162353515625</v>
       </c>
       <c r="D32" t="n">
-        <v>0.9948863658038053</v>
+        <v>0.9921218472368577</v>
       </c>
       <c r="E32" t="n">
-        <v>23113.34659090909</v>
+        <v>4694.46639476103</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1099,16 +1088,16 @@
         <v>32</v>
       </c>
       <c r="B33" t="n">
-        <v>0.9550000131130219</v>
+        <v>0.9369419515132904</v>
       </c>
       <c r="C33" t="n">
-        <v>22654.3671875</v>
+        <v>4553.15185546875</v>
       </c>
       <c r="D33" t="n">
-        <v>0.9967045458880338</v>
+        <v>0.9940257352941176</v>
       </c>
       <c r="E33" t="n">
-        <v>22653.40518465909</v>
+        <v>4552.222972196691</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1116,16 +1105,16 @@
         <v>33</v>
       </c>
       <c r="B34" t="n">
-        <v>0.9600000083446503</v>
+        <v>0.9453125</v>
       </c>
       <c r="C34" t="n">
-        <v>22202.853515625</v>
+        <v>4414.560302734375</v>
       </c>
       <c r="D34" t="n">
-        <v>0.9972727298736572</v>
+        <v>0.9944196413545048</v>
       </c>
       <c r="E34" t="n">
-        <v>22202.07688210227</v>
+        <v>4413.872587316177</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1133,16 +1122,16 @@
         <v>34</v>
       </c>
       <c r="B35" t="n">
-        <v>0.9425000250339508</v>
+        <v>0.9408482015132904</v>
       </c>
       <c r="C35" t="n">
-        <v>21760.6875</v>
+        <v>4280.065673828125</v>
       </c>
       <c r="D35" t="n">
-        <v>0.9863636493682861</v>
+        <v>0.9930409648839165</v>
       </c>
       <c r="E35" t="n">
-        <v>21759.40482954546</v>
+        <v>4279.382640165441</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1150,16 +1139,16 @@
         <v>35</v>
       </c>
       <c r="B36" t="n">
-        <v>0.9550000131130219</v>
+        <v>0.9369419515132904</v>
       </c>
       <c r="C36" t="n">
-        <v>21325.791015625</v>
+        <v>4149.293212890625</v>
       </c>
       <c r="D36" t="n">
-        <v>0.9950000047683716</v>
+        <v>0.9906775215092827</v>
       </c>
       <c r="E36" t="n">
-        <v>21324.83309659091</v>
+        <v>4148.632151884191</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1167,16 +1156,16 @@
         <v>36</v>
       </c>
       <c r="B37" t="n">
-        <v>0.9375</v>
+        <v>0.9162946343421936</v>
       </c>
       <c r="C37" t="n">
-        <v>20899.8623046875</v>
+        <v>4022.3603515625</v>
       </c>
       <c r="D37" t="n">
-        <v>0.9909090995788574</v>
+        <v>0.9772190136068007</v>
       </c>
       <c r="E37" t="n">
-        <v>20898.59108664773</v>
+        <v>4021.575367647059</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1184,16 +1173,16 @@
         <v>37</v>
       </c>
       <c r="B38" t="n">
-        <v>0.9600000083446503</v>
+        <v>0.9291294515132904</v>
       </c>
       <c r="C38" t="n">
-        <v>20481.1640625</v>
+        <v>3898.543579101562</v>
       </c>
       <c r="D38" t="n">
-        <v>0.9957954558459196</v>
+        <v>0.9892988450386945</v>
       </c>
       <c r="E38" t="n">
-        <v>20480.29030539773</v>
+        <v>3897.861241957721</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1201,16 +1190,16 @@
         <v>38</v>
       </c>
       <c r="B39" t="n">
-        <v>0.9449999928474426</v>
+        <v>0.9369419515132904</v>
       </c>
       <c r="C39" t="n">
-        <v>20070.74609375</v>
+        <v>3778.294677734375</v>
       </c>
       <c r="D39" t="n">
-        <v>0.9972727298736572</v>
+        <v>0.9935005237074459</v>
       </c>
       <c r="E39" t="n">
-        <v>20069.87943892046</v>
+        <v>3777.696260340073</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1218,16 +1207,16 @@
         <v>39</v>
       </c>
       <c r="B40" t="n">
-        <v>0.9424999952316284</v>
+        <v>0.9241071343421936</v>
       </c>
       <c r="C40" t="n">
-        <v>19668.1865234375</v>
+        <v>3661.525146484375</v>
       </c>
       <c r="D40" t="n">
-        <v>0.9945454597473145</v>
+        <v>0.9865414920975181</v>
       </c>
       <c r="E40" t="n">
-        <v>19667.22194602273</v>
+        <v>3660.933091107537</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1235,16 +1224,16 @@
         <v>40</v>
       </c>
       <c r="B41" t="n">
-        <v>0.9625000059604645</v>
+        <v>0.94140625</v>
       </c>
       <c r="C41" t="n">
-        <v>19272.9453125</v>
+        <v>3548.005981445312</v>
       </c>
       <c r="D41" t="n">
-        <v>0.9972727298736572</v>
+        <v>0.9926470588235294</v>
       </c>
       <c r="E41" t="n">
-        <v>19272.14595170454</v>
+        <v>3547.388528262868</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1252,16 +1241,16 @@
         <v>41</v>
       </c>
       <c r="B42" t="n">
-        <v>0.9600000083446503</v>
+        <v>0.9369419515132904</v>
       </c>
       <c r="C42" t="n">
-        <v>18885.1689453125</v>
+        <v>3437.741821289062</v>
       </c>
       <c r="D42" t="n">
-        <v>0.9995454549789429</v>
+        <v>0.9892988450386945</v>
       </c>
       <c r="E42" t="n">
-        <v>18884.54154829546</v>
+        <v>3437.067526424632</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1269,16 +1258,16 @@
         <v>42</v>
       </c>
       <c r="B43" t="n">
-        <v>0.9474999904632568</v>
+        <v>0.9458705484867096</v>
       </c>
       <c r="C43" t="n">
-        <v>18505.0615234375</v>
+        <v>3330.298217773438</v>
       </c>
       <c r="D43" t="n">
-        <v>0.9986363649368286</v>
+        <v>0.9967174354721519</v>
       </c>
       <c r="E43" t="n">
-        <v>18504.28107244318</v>
+        <v>3329.832648782169</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1286,16 +1275,16 @@
         <v>43</v>
       </c>
       <c r="B44" t="n">
-        <v>0.9449999928474426</v>
+        <v>0.9458705484867096</v>
       </c>
       <c r="C44" t="n">
-        <v>18132.1787109375</v>
+        <v>3226.18798828125</v>
       </c>
       <c r="D44" t="n">
-        <v>0.996363639831543</v>
+        <v>0.9929096628637875</v>
       </c>
       <c r="E44" t="n">
-        <v>18131.19868607954</v>
+        <v>3225.655359604779</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1303,16 +1292,16 @@
         <v>44</v>
       </c>
       <c r="B45" t="n">
-        <v>0.9600000083446503</v>
+        <v>0.9285714328289032</v>
       </c>
       <c r="C45" t="n">
-        <v>17765.90625</v>
+        <v>3124.9658203125</v>
       </c>
       <c r="D45" t="n">
-        <v>0.9975000023841858</v>
+        <v>0.9838497884133283</v>
       </c>
       <c r="E45" t="n">
-        <v>17765.14399857954</v>
+        <v>3124.464657054228</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1320,16 +1309,16 @@
         <v>45</v>
       </c>
       <c r="B46" t="n">
-        <v>0.9550000131130219</v>
+        <v>0.9408482015132904</v>
       </c>
       <c r="C46" t="n">
-        <v>17406.8525390625</v>
+        <v>3026.5361328125</v>
       </c>
       <c r="D46" t="n">
-        <v>0.996363639831543</v>
+        <v>0.992450104040258</v>
       </c>
       <c r="E46" t="n">
-        <v>17406.04474431818</v>
+        <v>3026.067454618566</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1337,16 +1326,16 @@
         <v>46</v>
       </c>
       <c r="B47" t="n">
-        <v>0.9575000107288361</v>
+        <v>0.94140625</v>
       </c>
       <c r="C47" t="n">
-        <v>17054.2431640625</v>
+        <v>2930.975708007812</v>
       </c>
       <c r="D47" t="n">
-        <v>0.9986363649368286</v>
+        <v>0.9915966391563416</v>
       </c>
       <c r="E47" t="n">
-        <v>17053.7265625</v>
+        <v>2930.520163143382</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1354,16 +1343,16 @@
         <v>47</v>
       </c>
       <c r="B48" t="n">
-        <v>0.9600000083446503</v>
+        <v>0.9503348171710968</v>
       </c>
       <c r="C48" t="n">
-        <v>16708.634765625</v>
+        <v>2838.013549804688</v>
       </c>
       <c r="D48" t="n">
-        <v>0.9977272748947144</v>
+        <v>0.9944196413545048</v>
       </c>
       <c r="E48" t="n">
-        <v>16708.08504971591</v>
+        <v>2837.698716107537</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1371,16 +1360,16 @@
         <v>48</v>
       </c>
       <c r="B49" t="n">
-        <v>0.9650000035762787</v>
+        <v>0.9291294515132904</v>
       </c>
       <c r="C49" t="n">
-        <v>16369.46630859375</v>
+        <v>2748.080200195312</v>
       </c>
       <c r="D49" t="n">
-        <v>0.9975000023841858</v>
+        <v>0.9805672273916357</v>
       </c>
       <c r="E49" t="n">
-        <v>16368.96351207386</v>
+        <v>2747.601677389706</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1388,16 +1377,16 @@
         <v>49</v>
       </c>
       <c r="B50" t="n">
-        <v>0.9724999964237213</v>
+        <v>0.9503348171710968</v>
       </c>
       <c r="C50" t="n">
-        <v>16036.7138671875</v>
+        <v>2660.301025390625</v>
       </c>
       <c r="D50" t="n">
-        <v>0.9995454549789429</v>
+        <v>0.9916622884133283</v>
       </c>
       <c r="E50" t="n">
-        <v>16036.27015269886</v>
+        <v>2659.980784696691</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1405,828 +1394,16 @@
         <v>50</v>
       </c>
       <c r="B51" t="n">
-        <v>0.9500000178813934</v>
+        <v>0.94140625</v>
       </c>
       <c r="C51" t="n">
-        <v>15710.7431640625</v>
+        <v>2575.206665039062</v>
       </c>
       <c r="D51" t="n">
-        <v>0.9917045506564054</v>
+        <v>0.9939600825309753</v>
       </c>
       <c r="E51" t="n">
-        <v>15709.94655539773</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
-      <c r="A52" t="n">
-        <v>51</v>
-      </c>
-      <c r="B52" t="n">
-        <v>0.9424999952316284</v>
-      </c>
-      <c r="C52" t="n">
-        <v>15390.48583984375</v>
-      </c>
-      <c r="D52" t="n">
-        <v>0.9948863658038053</v>
-      </c>
-      <c r="E52" t="n">
-        <v>15389.76171875</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
-      <c r="A53" t="n">
-        <v>52</v>
-      </c>
-      <c r="B53" t="n">
-        <v>0.9600000083446503</v>
-      </c>
-      <c r="C53" t="n">
-        <v>15076.13037109375</v>
-      </c>
-      <c r="D53" t="n">
-        <v>0.9985227259722623</v>
-      </c>
-      <c r="E53" t="n">
-        <v>15075.66787997159</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
-      <c r="A54" t="n">
-        <v>53</v>
-      </c>
-      <c r="B54" t="n">
-        <v>0.9524999856948853</v>
-      </c>
-      <c r="C54" t="n">
-        <v>14768.2529296875</v>
-      </c>
-      <c r="D54" t="n">
-        <v>0.9972727298736572</v>
-      </c>
-      <c r="E54" t="n">
-        <v>14767.56906960227</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
-      <c r="A55" t="n">
-        <v>54</v>
-      </c>
-      <c r="B55" t="n">
-        <v>0.9625000059604645</v>
-      </c>
-      <c r="C55" t="n">
-        <v>14465.63037109375</v>
-      </c>
-      <c r="D55" t="n">
-        <v>0.9995454549789429</v>
-      </c>
-      <c r="E55" t="n">
-        <v>14465.28524502841</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
-      <c r="A56" t="n">
-        <v>55</v>
-      </c>
-      <c r="B56" t="n">
-        <v>0.9424999952316284</v>
-      </c>
-      <c r="C56" t="n">
-        <v>14169.4462890625</v>
-      </c>
-      <c r="D56" t="n">
-        <v>0.9953409108248624</v>
-      </c>
-      <c r="E56" t="n">
-        <v>14168.79820667614</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
-      <c r="A57" t="n">
-        <v>56</v>
-      </c>
-      <c r="B57" t="n">
-        <v>0.9449999928474426</v>
-      </c>
-      <c r="C57" t="n">
-        <v>13878.291015625</v>
-      </c>
-      <c r="D57" t="n">
-        <v>0.9990909099578857</v>
-      </c>
-      <c r="E57" t="n">
-        <v>13877.93625710227</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
-      <c r="A58" t="n">
-        <v>57</v>
-      </c>
-      <c r="B58" t="n">
-        <v>0.9424999952316284</v>
-      </c>
-      <c r="C58" t="n">
-        <v>13593.18017578125</v>
-      </c>
-      <c r="D58" t="n">
-        <v>0.9980681809512052</v>
-      </c>
-      <c r="E58" t="n">
-        <v>13592.64000355114</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
-      <c r="A59" t="n">
-        <v>58</v>
-      </c>
-      <c r="B59" t="n">
-        <v>0.9399999976158142</v>
-      </c>
-      <c r="C59" t="n">
-        <v>13313.19189453125</v>
-      </c>
-      <c r="D59" t="n">
-        <v>0.9981818199157715</v>
-      </c>
-      <c r="E59" t="n">
-        <v>13312.77752130682</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
-      <c r="A60" t="n">
-        <v>59</v>
-      </c>
-      <c r="B60" t="n">
-        <v>0.9449999928474426</v>
-      </c>
-      <c r="C60" t="n">
-        <v>13038.80126953125</v>
-      </c>
-      <c r="D60" t="n">
-        <v>0.9986363649368286</v>
-      </c>
-      <c r="E60" t="n">
-        <v>13038.25763494318</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
-      <c r="A61" t="n">
-        <v>60</v>
-      </c>
-      <c r="B61" t="n">
-        <v>0.9449999928474426</v>
-      </c>
-      <c r="C61" t="n">
-        <v>12769.5107421875</v>
-      </c>
-      <c r="D61" t="n">
-        <v>0.9961363673210144</v>
-      </c>
-      <c r="E61" t="n">
-        <v>12768.97833806818</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
-      <c r="A62" t="n">
-        <v>61</v>
-      </c>
-      <c r="B62" t="n">
-        <v>0.9774999916553497</v>
-      </c>
-      <c r="C62" t="n">
-        <v>12505.0859375</v>
-      </c>
-      <c r="D62" t="n">
-        <v>0.9995454549789429</v>
-      </c>
-      <c r="E62" t="n">
-        <v>12504.84161931818</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
-      <c r="A63" t="n">
-        <v>62</v>
-      </c>
-      <c r="B63" t="n">
-        <v>0.9500000178813934</v>
-      </c>
-      <c r="C63" t="n">
-        <v>12246.22607421875</v>
-      </c>
-      <c r="D63" t="n">
-        <v>0.9959090948104858</v>
-      </c>
-      <c r="E63" t="n">
-        <v>12245.79598721591</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
-      <c r="A64" t="n">
-        <v>63</v>
-      </c>
-      <c r="B64" t="n">
-        <v>0.9600000083446503</v>
-      </c>
-      <c r="C64" t="n">
-        <v>11992.0927734375</v>
-      </c>
-      <c r="D64" t="n">
-        <v>0.9981818199157715</v>
-      </c>
-      <c r="E64" t="n">
-        <v>11991.69060724432</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
-      <c r="A65" t="n">
-        <v>64</v>
-      </c>
-      <c r="B65" t="n">
-        <v>0.9525000154972076</v>
-      </c>
-      <c r="C65" t="n">
-        <v>11742.87060546875</v>
-      </c>
-      <c r="D65" t="n">
-        <v>0.9986363649368286</v>
-      </c>
-      <c r="E65" t="n">
-        <v>11742.47017045455</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
-      <c r="A66" t="n">
-        <v>65</v>
-      </c>
-      <c r="B66" t="n">
-        <v>0.9724999964237213</v>
-      </c>
-      <c r="C66" t="n">
-        <v>11498.3525390625</v>
-      </c>
-      <c r="D66" t="n">
-        <v>0.9995454549789429</v>
-      </c>
-      <c r="E66" t="n">
-        <v>11498.02725497159</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
-      <c r="A67" t="n">
-        <v>66</v>
-      </c>
-      <c r="B67" t="n">
-        <v>0.9500000178813934</v>
-      </c>
-      <c r="C67" t="n">
-        <v>11258.7666015625</v>
-      </c>
-      <c r="D67" t="n">
-        <v>0.996363639831543</v>
-      </c>
-      <c r="E67" t="n">
-        <v>11258.29651988636</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
-      <c r="A68" t="n">
-        <v>67</v>
-      </c>
-      <c r="B68" t="n">
-        <v>0.9625000059604645</v>
-      </c>
-      <c r="C68" t="n">
-        <v>11023.4501953125</v>
-      </c>
-      <c r="D68" t="n">
-        <v>0.9995454549789429</v>
-      </c>
-      <c r="E68" t="n">
-        <v>11023.16450639205</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
-      <c r="A69" t="n">
-        <v>68</v>
-      </c>
-      <c r="B69" t="n">
-        <v>0.945000022649765</v>
-      </c>
-      <c r="C69" t="n">
-        <v>10792.99951171875</v>
-      </c>
-      <c r="D69" t="n">
-        <v>0.9943181872367859</v>
-      </c>
-      <c r="E69" t="n">
-        <v>10792.59534801136</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
-      <c r="A70" t="n">
-        <v>69</v>
-      </c>
-      <c r="B70" t="n">
-        <v>0.9749999940395355</v>
-      </c>
-      <c r="C70" t="n">
-        <v>10566.60595703125</v>
-      </c>
-      <c r="D70" t="n">
-        <v>0.9990909099578857</v>
-      </c>
-      <c r="E70" t="n">
-        <v>10566.43670099432</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5">
-      <c r="A71" t="n">
-        <v>70</v>
-      </c>
-      <c r="B71" t="n">
-        <v>0.9575000107288361</v>
-      </c>
-      <c r="C71" t="n">
-        <v>10345.056640625</v>
-      </c>
-      <c r="D71" t="n">
-        <v>0.9938636422157288</v>
-      </c>
-      <c r="E71" t="n">
-        <v>10344.70179332386</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
-      <c r="A72" t="n">
-        <v>71</v>
-      </c>
-      <c r="B72" t="n">
-        <v>0.9724999964237213</v>
-      </c>
-      <c r="C72" t="n">
-        <v>10127.42919921875</v>
-      </c>
-      <c r="D72" t="n">
-        <v>1</v>
-      </c>
-      <c r="E72" t="n">
-        <v>10127.20241477273</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
-      <c r="A73" t="n">
-        <v>72</v>
-      </c>
-      <c r="B73" t="n">
-        <v>0.9375</v>
-      </c>
-      <c r="C73" t="n">
-        <v>9914.4638671875</v>
-      </c>
-      <c r="D73" t="n">
-        <v>0.9871591004458341</v>
-      </c>
-      <c r="E73" t="n">
-        <v>9913.986860795454</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
-      <c r="A74" t="n">
-        <v>73</v>
-      </c>
-      <c r="B74" t="n">
-        <v>0.9724999964237213</v>
-      </c>
-      <c r="C74" t="n">
-        <v>9705.046875</v>
-      </c>
-      <c r="D74" t="n">
-        <v>0.9986363649368286</v>
-      </c>
-      <c r="E74" t="n">
-        <v>9704.81649502841</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
-      <c r="A75" t="n">
-        <v>74</v>
-      </c>
-      <c r="B75" t="n">
-        <v>0.9650000035762787</v>
-      </c>
-      <c r="C75" t="n">
-        <v>9500.08740234375</v>
-      </c>
-      <c r="D75" t="n">
-        <v>0.9956818222999573</v>
-      </c>
-      <c r="E75" t="n">
-        <v>9499.757191051136</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
-      <c r="A76" t="n">
-        <v>75</v>
-      </c>
-      <c r="B76" t="n">
-        <v>0.9724999964237213</v>
-      </c>
-      <c r="C76" t="n">
-        <v>9298.86376953125</v>
-      </c>
-      <c r="D76" t="n">
-        <v>0.9981818199157715</v>
-      </c>
-      <c r="E76" t="n">
-        <v>9298.6513671875</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
-      <c r="A77" t="n">
-        <v>76</v>
-      </c>
-      <c r="B77" t="n">
-        <v>0.9749999940395355</v>
-      </c>
-      <c r="C77" t="n">
-        <v>9101.62109375</v>
-      </c>
-      <c r="D77" t="n">
-        <v>0.9994318160143766</v>
-      </c>
-      <c r="E77" t="n">
-        <v>9101.464044744318</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
-      <c r="A78" t="n">
-        <v>77</v>
-      </c>
-      <c r="B78" t="n">
-        <v>0.9475000202655792</v>
-      </c>
-      <c r="C78" t="n">
-        <v>8908.4521484375</v>
-      </c>
-      <c r="D78" t="n">
-        <v>0.9948863658038053</v>
-      </c>
-      <c r="E78" t="n">
-        <v>8908.130237926136</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
-      <c r="A79" t="n">
-        <v>78</v>
-      </c>
-      <c r="B79" t="n">
-        <v>0.9749999940395355</v>
-      </c>
-      <c r="C79" t="n">
-        <v>8718.73779296875</v>
-      </c>
-      <c r="D79" t="n">
-        <v>0.9986363649368286</v>
-      </c>
-      <c r="E79" t="n">
-        <v>8718.545720880682</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
-      <c r="A80" t="n">
-        <v>79</v>
-      </c>
-      <c r="B80" t="n">
-        <v>0.9699999988079071</v>
-      </c>
-      <c r="C80" t="n">
-        <v>8532.916015625</v>
-      </c>
-      <c r="D80" t="n">
-        <v>0.9952272772789001</v>
-      </c>
-      <c r="E80" t="n">
-        <v>8532.675514914772</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
-      <c r="A81" t="n">
-        <v>80</v>
-      </c>
-      <c r="B81" t="n">
-        <v>0.9575000107288361</v>
-      </c>
-      <c r="C81" t="n">
-        <v>8350.67626953125</v>
-      </c>
-      <c r="D81" t="n">
-        <v>0.9957954558459196</v>
-      </c>
-      <c r="E81" t="n">
-        <v>8350.437677556818</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0.9862728275523962</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.2195121951219512</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="n">
-        <v>0</v>
-      </c>
-      <c r="B3" t="n">
-        <v>0.9862728275523962</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.7560975609756098</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="n">
-        <v>0.005025125628140704</v>
-      </c>
-      <c r="B4" t="n">
-        <v>0.9862728275523962</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.7560975609756098</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="n">
-        <v>0.005025125628140704</v>
-      </c>
-      <c r="B5" t="n">
-        <v>0.9862728275523962</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.7804878048780488</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="n">
-        <v>0.01005025125628141</v>
-      </c>
-      <c r="B6" t="n">
-        <v>0.9862728275523962</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.7804878048780488</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="n">
-        <v>0.01005025125628141</v>
-      </c>
-      <c r="B7" t="n">
-        <v>0.9862728275523962</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.9512195121951219</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="n">
-        <v>0.09547738693467336</v>
-      </c>
-      <c r="B8" t="n">
-        <v>0.9862728275523962</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.9512195121951219</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="n">
-        <v>0.09547738693467336</v>
-      </c>
-      <c r="B9" t="n">
-        <v>0.9862728275523962</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.975609756097561</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="n">
-        <v>0.3919597989949749</v>
-      </c>
-      <c r="B10" t="n">
-        <v>0.9862728275523962</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.975609756097561</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="n">
-        <v>0.3919597989949749</v>
-      </c>
-      <c r="B11" t="n">
-        <v>0.9862728275523962</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="n">
-        <v>1</v>
-      </c>
-      <c r="B12" t="n">
-        <v>0.9862728275523962</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0.9828410344404951</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="n">
-        <v>0.02439024390243903</v>
-      </c>
-      <c r="B3" t="n">
-        <v>0.9828410344404951</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.9045226130653267</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="n">
-        <v>0.04878048780487805</v>
-      </c>
-      <c r="B4" t="n">
-        <v>0.9828410344404951</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.9346733668341709</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="n">
-        <v>0.04878048780487805</v>
-      </c>
-      <c r="B5" t="n">
-        <v>0.9828410344404951</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.9396984924623115</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="n">
-        <v>0.04878048780487805</v>
-      </c>
-      <c r="B6" t="n">
-        <v>0.9828410344404951</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.9547738693467337</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="n">
-        <v>0.04878048780487805</v>
-      </c>
-      <c r="B7" t="n">
-        <v>0.9828410344404951</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.9899497487437185</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="n">
-        <v>0.2195121951219512</v>
-      </c>
-      <c r="B8" t="n">
-        <v>0.9828410344404951</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.9899497487437185</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="n">
-        <v>0.2195121951219512</v>
-      </c>
-      <c r="B9" t="n">
-        <v>0.9828410344404951</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.9949748743718593</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="n">
-        <v>0.2439024390243902</v>
-      </c>
-      <c r="B10" t="n">
-        <v>0.9828410344404951</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.9949748743718593</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="n">
-        <v>0.2439024390243902</v>
-      </c>
-      <c r="B11" t="n">
-        <v>0.9828410344404951</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="n">
-        <v>1</v>
-      </c>
-      <c r="B12" t="n">
-        <v>0.9828410344404951</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1</v>
+        <v>2574.917882582721</v>
       </c>
     </row>
   </sheetData>
